--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadUpdatedVIN_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadUpdatedVIN_UT_SS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="69">
   <si>
     <t>VIN</t>
   </si>
@@ -228,6 +228,9 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>STAT</t>
   </si>
 </sst>
 </file>
@@ -589,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ8"/>
+  <dimension ref="A1:AK8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AB7" sqref="AB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -609,18 +612,19 @@
     <col min="23" max="23" width="22.21875" customWidth="1"/>
     <col min="24" max="24" width="20.88671875" customWidth="1"/>
     <col min="25" max="25" width="34.77734375" customWidth="1"/>
-    <col min="26" max="26" width="14.88671875" customWidth="1"/>
-    <col min="27" max="27" width="16.21875" customWidth="1"/>
-    <col min="29" max="29" width="12.109375" customWidth="1"/>
-    <col min="30" max="30" width="12.5546875" customWidth="1"/>
-    <col min="31" max="31" width="14" customWidth="1"/>
-    <col min="32" max="32" width="13" customWidth="1"/>
-    <col min="33" max="33" width="11.6640625" customWidth="1"/>
-    <col min="35" max="35" width="20.88671875" customWidth="1"/>
-    <col min="36" max="36" width="20.6640625" customWidth="1"/>
+    <col min="26" max="26" width="5.6640625" customWidth="1"/>
+    <col min="27" max="27" width="14.88671875" customWidth="1"/>
+    <col min="28" max="28" width="16.21875" customWidth="1"/>
+    <col min="30" max="30" width="12.109375" customWidth="1"/>
+    <col min="31" max="31" width="12.5546875" customWidth="1"/>
+    <col min="32" max="32" width="14" customWidth="1"/>
+    <col min="33" max="33" width="13" customWidth="1"/>
+    <col min="34" max="34" width="11.6640625" customWidth="1"/>
+    <col min="36" max="36" width="20.88671875" customWidth="1"/>
+    <col min="37" max="37" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -697,40 +701,43 @@
         <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>41</v>
       </c>
@@ -798,17 +805,17 @@
       <c r="Y2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="Z2" s="4">
-        <v>44</v>
+      <c r="Z2" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="AA2" s="4">
         <v>44</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AB2" s="4">
+        <v>44</v>
+      </c>
+      <c r="AC2" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="AD2" s="4" t="s">
         <v>66</v>
@@ -819,20 +826,23 @@
       <c r="AF2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH2">
         <v>20000101</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>40</v>
       </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AJ2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AJ2" s="4" t="s">
+      <c r="AK2" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -909,40 +919,43 @@
         <v>38</v>
       </c>
       <c r="Z3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AB3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AC3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AD3" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="AD3" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="AE3" s="4" t="s">
         <v>66</v>
       </c>
       <c r="AF3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AG3" s="5">
+      <c r="AH3" s="5">
         <v>20150101</v>
       </c>
-      <c r="AH3" s="5" t="s">
+      <c r="AI3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AI3" s="4" t="s">
+      <c r="AJ3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AJ3" s="4" t="s">
+      <c r="AK3" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
@@ -975,11 +988,12 @@
       <c r="AD4" s="4"/>
       <c r="AE4" s="4"/>
       <c r="AF4" s="4"/>
-      <c r="AH4" s="4"/>
+      <c r="AG4" s="4"/>
       <c r="AI4" s="4"/>
       <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1011,8 +1025,9 @@
       <c r="AD5" s="4"/>
       <c r="AE5" s="4"/>
       <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
       <c r="G8" s="4"/>
@@ -1039,9 +1054,10 @@
       <c r="AD8" s="4"/>
       <c r="AE8" s="4"/>
       <c r="AF8" s="4"/>
-      <c r="AH8" s="4"/>
+      <c r="AG8" s="4"/>
       <c r="AI8" s="4"/>
       <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadUpdatedVIN_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadUpdatedVIN_UT_SS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="71">
   <si>
     <t>VIN</t>
   </si>
@@ -231,6 +231,12 @@
   </si>
   <si>
     <t>STAT</t>
+  </si>
+  <si>
+    <t>CHOICE_TIER</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -592,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK8"/>
+  <dimension ref="A1:AL8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AB7" sqref="AB7"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AG12" sqref="AG12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -614,17 +620,17 @@
     <col min="25" max="25" width="34.77734375" customWidth="1"/>
     <col min="26" max="26" width="5.6640625" customWidth="1"/>
     <col min="27" max="27" width="14.88671875" customWidth="1"/>
-    <col min="28" max="28" width="16.21875" customWidth="1"/>
-    <col min="30" max="30" width="12.109375" customWidth="1"/>
-    <col min="31" max="31" width="12.5546875" customWidth="1"/>
-    <col min="32" max="32" width="14" customWidth="1"/>
-    <col min="33" max="33" width="13" customWidth="1"/>
-    <col min="34" max="34" width="11.6640625" customWidth="1"/>
-    <col min="36" max="36" width="20.88671875" customWidth="1"/>
-    <col min="37" max="37" width="20.6640625" customWidth="1"/>
+    <col min="28" max="29" width="16.21875" customWidth="1"/>
+    <col min="31" max="31" width="12.109375" customWidth="1"/>
+    <col min="32" max="32" width="12.5546875" customWidth="1"/>
+    <col min="33" max="33" width="14" customWidth="1"/>
+    <col min="34" max="34" width="13" customWidth="1"/>
+    <col min="35" max="35" width="11.6640625" customWidth="1"/>
+    <col min="37" max="37" width="20.88671875" customWidth="1"/>
+    <col min="38" max="38" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -710,34 +716,37 @@
         <v>26</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>41</v>
       </c>
@@ -815,10 +824,10 @@
         <v>44</v>
       </c>
       <c r="AC2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD2" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="AD2" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="AE2" s="4" t="s">
         <v>66</v>
@@ -829,20 +838,23 @@
       <c r="AG2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI2">
         <v>20000101</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>40</v>
       </c>
-      <c r="AJ2" s="4" t="s">
+      <c r="AK2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AK2" s="4" t="s">
+      <c r="AL2" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -928,34 +940,37 @@
         <v>43</v>
       </c>
       <c r="AC3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AE3" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="AE3" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="AF3" s="4" t="s">
         <v>66</v>
       </c>
       <c r="AG3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AH3" s="5">
+      <c r="AI3" s="5">
         <v>20150101</v>
       </c>
-      <c r="AI3" s="5" t="s">
+      <c r="AJ3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AJ3" s="4" t="s">
+      <c r="AK3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AK3" s="4" t="s">
+      <c r="AL3" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
@@ -989,11 +1004,12 @@
       <c r="AE4" s="4"/>
       <c r="AF4" s="4"/>
       <c r="AG4" s="4"/>
-      <c r="AI4" s="4"/>
+      <c r="AH4" s="4"/>
       <c r="AJ4" s="4"/>
       <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1026,8 +1042,9 @@
       <c r="AE5" s="4"/>
       <c r="AF5" s="4"/>
       <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
       <c r="G8" s="4"/>
@@ -1055,9 +1072,10 @@
       <c r="AE8" s="4"/>
       <c r="AF8" s="4"/>
       <c r="AG8" s="4"/>
-      <c r="AI8" s="4"/>
+      <c r="AH8" s="4"/>
       <c r="AJ8" s="4"/>
       <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadUpdatedVIN_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadUpdatedVIN_UT_SS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gu1xkaz\IdeaProjects\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT-repo\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="72">
   <si>
     <t>VIN</t>
   </si>
@@ -227,9 +227,6 @@
     <t>I</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
     <t>STAT</t>
   </si>
   <si>
@@ -237,6 +234,12 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>SS</t>
   </si>
 </sst>
 </file>
@@ -598,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL8"/>
+  <dimension ref="A1:AL7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AG12" sqref="AG12"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AE3" sqref="AE3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -707,7 +710,7 @@
         <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>25</v>
@@ -716,7 +719,7 @@
         <v>26</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>27</v>
@@ -824,7 +827,7 @@
         <v>44</v>
       </c>
       <c r="AC2" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AD2" s="4" t="s">
         <v>57</v>
@@ -946,19 +949,19 @@
         <v>40</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="AF3" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="AG3" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="AH3" s="4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="AI3" s="5">
-        <v>20150101</v>
+        <v>20140101</v>
       </c>
       <c r="AJ3" s="5" t="s">
         <v>40</v>
@@ -971,7 +974,6 @@
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -1005,77 +1007,39 @@
       <c r="AF4" s="4"/>
       <c r="AG4" s="4"/>
       <c r="AH4" s="4"/>
-      <c r="AJ4" s="4"/>
-      <c r="AK4" s="4"/>
-      <c r="AL4" s="4"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="4"/>
-      <c r="AE5" s="4"/>
-      <c r="AF5" s="4"/>
-      <c r="AG5" s="4"/>
-      <c r="AH5" s="4"/>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
-      <c r="AJ8" s="4"/>
-      <c r="AK8" s="4"/>
-      <c r="AL8" s="4"/>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
